--- a/DB table design.xlsx
+++ b/DB table design.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Desktop\UNi\2019-2\융합소프트웨어종합설계\5조_keyclassdiagram_tabledesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3D7A6A-6951-4725-B8C7-EADC21464EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29AE9013-7A3C-2840-B151-6F7DB7AEBCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brand" sheetId="1" r:id="rId1"/>
     <sheet name="Food" sheetId="12" r:id="rId2"/>
     <sheet name="Moving" sheetId="13" r:id="rId3"/>
     <sheet name="User" sheetId="7" r:id="rId4"/>
-    <sheet name="User_Brand" sheetId="8" r:id="rId5"/>
-    <sheet name="Category" sheetId="11" r:id="rId6"/>
-    <sheet name=" User_Path" sheetId="9" r:id="rId7"/>
-    <sheet name="Category_Brand" sheetId="6" r:id="rId8"/>
-    <sheet name="Cathegory_Food" sheetId="14" r:id="rId9"/>
-    <sheet name="Cathegory_Moving" sheetId="15" r:id="rId10"/>
+    <sheet name="Category" sheetId="11" r:id="rId5"/>
+    <sheet name="Path" sheetId="16" r:id="rId6"/>
+    <sheet name="User_Brand" sheetId="8" r:id="rId7"/>
+    <sheet name=" User_Path" sheetId="9" r:id="rId8"/>
+    <sheet name="Category_Brand" sheetId="6" r:id="rId9"/>
+    <sheet name="Cathegory_Food" sheetId="14" r:id="rId10"/>
+    <sheet name="Path_Brand" sheetId="24" r:id="rId11"/>
+    <sheet name="Cathegory_Moving" sheetId="15" r:id="rId12"/>
+    <sheet name="scnenario1" sheetId="25" r:id="rId13"/>
+    <sheet name="scenario2" sheetId="26" r:id="rId14"/>
+    <sheet name="scenario3" sheetId="27" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Brand!$A$2:$E$177</definedName>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="347">
   <si>
     <t>8 SECONDS</t>
   </si>
@@ -1084,6 +1089,70 @@
   </si>
   <si>
     <t>User_nonpreference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점도 카페도 아니니 삭제해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Brand 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 후 첫 이용 가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Path 테이블 존재하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용기록이 있는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 루트 선택상황별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bought</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1131,16 +1200,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1148,13 +1229,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,8 +1275,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1459,16 +1562,16 @@
   <dimension ref="B1:L242"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
         <v>243</v>
       </c>
@@ -1493,7 +1596,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1513,7 +1616,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1530,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1547,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12">
       <c r="B5">
         <v>4</v>
       </c>
@@ -1558,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1575,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12">
       <c r="B7">
         <v>6</v>
       </c>
@@ -1592,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>7</v>
       </c>
@@ -1609,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1626,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>9</v>
       </c>
@@ -1643,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1660,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1671,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1688,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1705,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1722,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1739,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1750,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1767,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1784,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1801,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1818,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1835,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1852,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1863,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1880,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1897,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1914,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1931,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1948,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1959,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1976,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1993,7 +2096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6">
       <c r="B33">
         <v>32</v>
       </c>
@@ -2010,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="B34">
         <v>33</v>
       </c>
@@ -2027,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="B35">
         <v>34</v>
       </c>
@@ -2044,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36">
         <v>35</v>
       </c>
@@ -2061,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37">
         <v>36</v>
       </c>
@@ -2078,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="B38">
         <v>37</v>
       </c>
@@ -2095,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39">
         <v>38</v>
       </c>
@@ -2112,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6">
       <c r="B40">
         <v>39</v>
       </c>
@@ -2129,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="B41">
         <v>40</v>
       </c>
@@ -2146,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42">
         <v>41</v>
       </c>
@@ -2163,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43">
         <v>42</v>
       </c>
@@ -2180,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6">
       <c r="B44">
         <v>43</v>
       </c>
@@ -2197,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="B45">
         <v>44</v>
       </c>
@@ -2214,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6">
       <c r="B46">
         <v>45</v>
       </c>
@@ -2231,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6">
       <c r="B47">
         <v>46</v>
       </c>
@@ -2248,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6">
       <c r="B48">
         <v>47</v>
       </c>
@@ -2265,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6">
       <c r="B49">
         <v>48</v>
       </c>
@@ -2282,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6">
       <c r="B50">
         <v>49</v>
       </c>
@@ -2299,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6">
       <c r="B51">
         <v>50</v>
       </c>
@@ -2316,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6">
       <c r="B52">
         <v>51</v>
       </c>
@@ -2333,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6">
       <c r="B53">
         <v>52</v>
       </c>
@@ -2350,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6">
       <c r="B54">
         <v>53</v>
       </c>
@@ -2367,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6">
       <c r="B55">
         <v>54</v>
       </c>
@@ -2384,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6">
       <c r="B56">
         <v>55</v>
       </c>
@@ -2401,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6">
       <c r="B57">
         <v>56</v>
       </c>
@@ -2418,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6">
       <c r="B58">
         <v>57</v>
       </c>
@@ -2435,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6">
       <c r="B59">
         <v>58</v>
       </c>
@@ -2452,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6">
       <c r="B60">
         <v>59</v>
       </c>
@@ -2463,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6">
       <c r="B61">
         <v>60</v>
       </c>
@@ -2480,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6">
       <c r="B62">
         <v>61</v>
       </c>
@@ -2497,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6">
       <c r="B63">
         <v>62</v>
       </c>
@@ -2514,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6">
       <c r="B64">
         <v>63</v>
       </c>
@@ -2531,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6">
       <c r="B65">
         <v>64</v>
       </c>
@@ -2548,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6">
       <c r="B66">
         <v>65</v>
       </c>
@@ -2565,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6">
       <c r="B67">
         <v>66</v>
       </c>
@@ -2582,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6">
       <c r="B68">
         <v>67</v>
       </c>
@@ -2599,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6">
       <c r="B69">
         <v>68</v>
       </c>
@@ -2616,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6">
       <c r="B70">
         <v>69</v>
       </c>
@@ -2633,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6">
       <c r="B71">
         <v>70</v>
       </c>
@@ -2650,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6">
       <c r="B72">
         <v>71</v>
       </c>
@@ -2667,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6">
       <c r="B73">
         <v>72</v>
       </c>
@@ -2678,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6">
       <c r="B74">
         <v>73</v>
       </c>
@@ -2695,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6">
       <c r="B75">
         <v>74</v>
       </c>
@@ -2712,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6">
       <c r="B76">
         <v>75</v>
       </c>
@@ -2729,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6">
       <c r="B77">
         <v>76</v>
       </c>
@@ -2746,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6">
       <c r="B78">
         <v>77</v>
       </c>
@@ -2763,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6">
       <c r="B79">
         <v>78</v>
       </c>
@@ -2774,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6">
       <c r="B80">
         <v>79</v>
       </c>
@@ -2791,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6">
       <c r="B81">
         <v>80</v>
       </c>
@@ -2808,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6">
       <c r="B82">
         <v>81</v>
       </c>
@@ -2825,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6">
       <c r="B83">
         <v>82</v>
       </c>
@@ -2842,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6">
       <c r="B84">
         <v>83</v>
       </c>
@@ -2859,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6">
       <c r="B85">
         <v>84</v>
       </c>
@@ -2876,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6">
       <c r="B86">
         <v>85</v>
       </c>
@@ -2893,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6">
       <c r="B87">
         <v>86</v>
       </c>
@@ -2910,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6">
       <c r="B88">
         <v>87</v>
       </c>
@@ -2927,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6">
       <c r="B89">
         <v>88</v>
       </c>
@@ -2944,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6">
       <c r="B90">
         <v>89</v>
       </c>
@@ -2961,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6">
       <c r="B91">
         <v>90</v>
       </c>
@@ -2972,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6">
       <c r="B92">
         <v>91</v>
       </c>
@@ -2989,7 +3092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6">
       <c r="B93">
         <v>92</v>
       </c>
@@ -3006,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6">
       <c r="B94">
         <v>93</v>
       </c>
@@ -3023,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6">
       <c r="B95">
         <v>94</v>
       </c>
@@ -3040,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6">
       <c r="B96">
         <v>95</v>
       </c>
@@ -3057,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6">
       <c r="B97">
         <v>96</v>
       </c>
@@ -3074,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6">
       <c r="B98">
         <v>97</v>
       </c>
@@ -3091,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6">
       <c r="B99">
         <v>98</v>
       </c>
@@ -3108,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6">
       <c r="B100">
         <v>99</v>
       </c>
@@ -3125,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6">
       <c r="B101">
         <v>100</v>
       </c>
@@ -3142,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6">
       <c r="B102">
         <v>101</v>
       </c>
@@ -3159,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6">
       <c r="B103">
         <v>102</v>
       </c>
@@ -3170,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6">
       <c r="B104">
         <v>103</v>
       </c>
@@ -3181,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6">
       <c r="B105">
         <v>104</v>
       </c>
@@ -3198,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6">
       <c r="B106">
         <v>105</v>
       </c>
@@ -3215,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6">
       <c r="B107">
         <v>106</v>
       </c>
@@ -3232,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6">
       <c r="B108">
         <v>107</v>
       </c>
@@ -3249,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6">
       <c r="B109">
         <v>108</v>
       </c>
@@ -3266,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6">
       <c r="B110">
         <v>109</v>
       </c>
@@ -3283,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6">
       <c r="B111">
         <v>110</v>
       </c>
@@ -3300,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6">
       <c r="B112">
         <v>111</v>
       </c>
@@ -3317,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6">
       <c r="B113">
         <v>112</v>
       </c>
@@ -3334,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6">
       <c r="B114">
         <v>113</v>
       </c>
@@ -3351,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6">
       <c r="B115">
         <v>114</v>
       </c>
@@ -3368,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6">
       <c r="B116">
         <v>115</v>
       </c>
@@ -3379,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6">
       <c r="B117">
         <v>116</v>
       </c>
@@ -3396,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6">
       <c r="B118">
         <v>117</v>
       </c>
@@ -3413,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6">
       <c r="B119">
         <v>118</v>
       </c>
@@ -3430,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6">
       <c r="B120">
         <v>119</v>
       </c>
@@ -3447,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6">
       <c r="B121">
         <v>120</v>
       </c>
@@ -3464,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6">
       <c r="B122">
         <v>121</v>
       </c>
@@ -3481,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6">
       <c r="B123">
         <v>122</v>
       </c>
@@ -3498,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6">
       <c r="B124">
         <v>123</v>
       </c>
@@ -3515,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6">
       <c r="B125">
         <v>124</v>
       </c>
@@ -3532,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6">
       <c r="B126">
         <v>125</v>
       </c>
@@ -3549,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6">
       <c r="B127">
         <v>126</v>
       </c>
@@ -3566,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6">
       <c r="B128">
         <v>127</v>
       </c>
@@ -3583,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6">
       <c r="B129">
         <v>128</v>
       </c>
@@ -3600,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6">
       <c r="B130">
         <v>129</v>
       </c>
@@ -3611,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6">
       <c r="B131">
         <v>130</v>
       </c>
@@ -3622,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6">
       <c r="B132">
         <v>131</v>
       </c>
@@ -3639,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6">
       <c r="B133">
         <v>132</v>
       </c>
@@ -3650,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6">
       <c r="B134">
         <v>133</v>
       </c>
@@ -3667,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6">
       <c r="B135">
         <v>134</v>
       </c>
@@ -3684,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6">
       <c r="B136">
         <v>135</v>
       </c>
@@ -3695,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6">
       <c r="B137">
         <v>136</v>
       </c>
@@ -3712,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6">
       <c r="B138">
         <v>137</v>
       </c>
@@ -3729,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6">
       <c r="B139">
         <v>138</v>
       </c>
@@ -3746,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6">
       <c r="B140">
         <v>139</v>
       </c>
@@ -3763,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6">
       <c r="B141">
         <v>140</v>
       </c>
@@ -3774,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6">
       <c r="B142">
         <v>141</v>
       </c>
@@ -3791,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6">
       <c r="B143">
         <v>142</v>
       </c>
@@ -3808,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6">
       <c r="B144">
         <v>143</v>
       </c>
@@ -3825,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6">
       <c r="B145">
         <v>144</v>
       </c>
@@ -3842,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6">
       <c r="B146">
         <v>145</v>
       </c>
@@ -3859,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6">
       <c r="B147">
         <v>146</v>
       </c>
@@ -3876,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6">
       <c r="B148">
         <v>147</v>
       </c>
@@ -3893,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6">
       <c r="B149">
         <v>148</v>
       </c>
@@ -3910,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6">
       <c r="B150">
         <v>149</v>
       </c>
@@ -3927,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6">
       <c r="B151">
         <v>150</v>
       </c>
@@ -3944,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6">
       <c r="B152">
         <v>151</v>
       </c>
@@ -3961,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6">
       <c r="B153">
         <v>152</v>
       </c>
@@ -3978,7 +4081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6">
       <c r="B154">
         <v>153</v>
       </c>
@@ -3995,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6">
       <c r="B155">
         <v>154</v>
       </c>
@@ -4006,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6">
       <c r="B156">
         <v>155</v>
       </c>
@@ -4023,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6">
       <c r="B157">
         <v>156</v>
       </c>
@@ -4034,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6">
       <c r="B158">
         <v>157</v>
       </c>
@@ -4051,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6">
       <c r="B159">
         <v>158</v>
       </c>
@@ -4068,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6">
       <c r="B160">
         <v>159</v>
       </c>
@@ -4079,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6">
       <c r="B161">
         <v>160</v>
       </c>
@@ -4096,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6">
       <c r="B162">
         <v>161</v>
       </c>
@@ -4113,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6">
       <c r="B163">
         <v>162</v>
       </c>
@@ -4130,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6">
       <c r="B164">
         <v>163</v>
       </c>
@@ -4141,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6">
       <c r="B165">
         <v>164</v>
       </c>
@@ -4158,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6">
       <c r="B166">
         <v>165</v>
       </c>
@@ -4175,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6">
       <c r="B167">
         <v>166</v>
       </c>
@@ -4192,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6">
       <c r="B168">
         <v>167</v>
       </c>
@@ -4209,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6">
       <c r="B169">
         <v>168</v>
       </c>
@@ -4226,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6">
       <c r="B170">
         <v>169</v>
       </c>
@@ -4243,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6">
       <c r="B171">
         <v>170</v>
       </c>
@@ -4260,7 +4363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6">
       <c r="B172">
         <v>171</v>
       </c>
@@ -4277,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6">
       <c r="B173">
         <v>172</v>
       </c>
@@ -4294,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6">
       <c r="B174">
         <v>173</v>
       </c>
@@ -4311,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6">
       <c r="B175">
         <v>174</v>
       </c>
@@ -4328,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6">
       <c r="B176">
         <v>175</v>
       </c>
@@ -4345,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6">
       <c r="B177">
         <v>176</v>
       </c>
@@ -4362,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6">
       <c r="B178">
         <v>177</v>
       </c>
@@ -4379,7 +4482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6">
       <c r="B179">
         <v>178</v>
       </c>
@@ -4396,7 +4499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6">
       <c r="B180">
         <v>179</v>
       </c>
@@ -4413,7 +4516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6">
       <c r="B181">
         <v>180</v>
       </c>
@@ -4430,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6">
       <c r="B182">
         <v>181</v>
       </c>
@@ -4447,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6">
       <c r="B183">
         <v>182</v>
       </c>
@@ -4464,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6">
       <c r="B184">
         <v>183</v>
       </c>
@@ -4481,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6">
       <c r="B185">
         <v>184</v>
       </c>
@@ -4498,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6">
       <c r="B186">
         <v>185</v>
       </c>
@@ -4515,7 +4618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6">
       <c r="B187">
         <v>186</v>
       </c>
@@ -4532,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6">
       <c r="B188">
         <v>187</v>
       </c>
@@ -4549,7 +4652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6">
       <c r="B189">
         <v>188</v>
       </c>
@@ -4566,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6">
       <c r="B190">
         <v>189</v>
       </c>
@@ -4583,7 +4686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6">
       <c r="B191">
         <v>190</v>
       </c>
@@ -4600,7 +4703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6">
       <c r="B192">
         <v>191</v>
       </c>
@@ -4617,7 +4720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6">
       <c r="B193">
         <v>192</v>
       </c>
@@ -4634,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6">
       <c r="B194">
         <v>193</v>
       </c>
@@ -4651,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6">
       <c r="B195">
         <v>194</v>
       </c>
@@ -4668,7 +4771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6">
       <c r="B196">
         <v>195</v>
       </c>
@@ -4685,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6">
       <c r="B197">
         <v>196</v>
       </c>
@@ -4702,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6">
       <c r="B198">
         <v>197</v>
       </c>
@@ -4719,7 +4822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6">
       <c r="B199">
         <v>198</v>
       </c>
@@ -4736,7 +4839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6">
       <c r="B200">
         <v>199</v>
       </c>
@@ -4753,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6">
       <c r="B201">
         <v>200</v>
       </c>
@@ -4770,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6">
       <c r="B202">
         <v>201</v>
       </c>
@@ -4787,7 +4890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6">
       <c r="B203">
         <v>202</v>
       </c>
@@ -4804,7 +4907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:6">
       <c r="B204">
         <v>203</v>
       </c>
@@ -4821,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:6">
       <c r="B205">
         <v>204</v>
       </c>
@@ -4838,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6">
       <c r="B206">
         <v>205</v>
       </c>
@@ -4849,7 +4952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6">
       <c r="B207">
         <v>206</v>
       </c>
@@ -4866,7 +4969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:6">
       <c r="B208">
         <v>207</v>
       </c>
@@ -4883,7 +4986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6">
       <c r="B209">
         <v>208</v>
       </c>
@@ -4900,7 +5003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6">
       <c r="B210">
         <v>209</v>
       </c>
@@ -4917,7 +5020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6">
       <c r="B211">
         <v>210</v>
       </c>
@@ -4934,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6">
       <c r="B212">
         <v>211</v>
       </c>
@@ -4951,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6">
       <c r="B213">
         <v>212</v>
       </c>
@@ -4968,7 +5071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6">
       <c r="B214">
         <v>213</v>
       </c>
@@ -4979,7 +5082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6">
       <c r="B215">
         <v>214</v>
       </c>
@@ -4996,7 +5099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6">
       <c r="B216">
         <v>215</v>
       </c>
@@ -5013,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6">
       <c r="B217">
         <v>216</v>
       </c>
@@ -5030,7 +5133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6">
       <c r="B218">
         <v>217</v>
       </c>
@@ -5047,7 +5150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6">
       <c r="B219">
         <v>218</v>
       </c>
@@ -5064,7 +5167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6">
       <c r="B220">
         <v>219</v>
       </c>
@@ -5081,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6">
       <c r="B221">
         <v>220</v>
       </c>
@@ -5098,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6">
       <c r="B222">
         <v>221</v>
       </c>
@@ -5115,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6">
       <c r="B223">
         <v>222</v>
       </c>
@@ -5132,7 +5235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6">
       <c r="B224">
         <v>223</v>
       </c>
@@ -5143,7 +5246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6">
       <c r="B225">
         <v>224</v>
       </c>
@@ -5160,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6">
       <c r="B226">
         <v>225</v>
       </c>
@@ -5177,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6">
       <c r="B227">
         <v>226</v>
       </c>
@@ -5194,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6">
       <c r="B228">
         <v>227</v>
       </c>
@@ -5211,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6">
       <c r="B229">
         <v>228</v>
       </c>
@@ -5228,7 +5331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:6">
       <c r="B230">
         <v>229</v>
       </c>
@@ -5245,7 +5348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:6">
       <c r="B231">
         <v>230</v>
       </c>
@@ -5262,7 +5365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:6">
       <c r="B232">
         <v>231</v>
       </c>
@@ -5279,7 +5382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6">
       <c r="B233">
         <v>232</v>
       </c>
@@ -5296,7 +5399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:6">
       <c r="B234">
         <v>233</v>
       </c>
@@ -5313,7 +5416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:6">
       <c r="B235">
         <v>234</v>
       </c>
@@ -5330,7 +5433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:6">
       <c r="B236">
         <v>235</v>
       </c>
@@ -5347,7 +5450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:6">
       <c r="B237">
         <v>236</v>
       </c>
@@ -5364,7 +5467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6">
       <c r="B238">
         <v>237</v>
       </c>
@@ -5381,7 +5484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:6">
       <c r="B239">
         <v>238</v>
       </c>
@@ -5398,7 +5501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:6">
       <c r="B240">
         <v>239</v>
       </c>
@@ -5415,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6">
       <c r="B241">
         <v>240</v>
       </c>
@@ -5432,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6">
       <c r="B242">
         <v>241</v>
       </c>
@@ -5457,16 +5560,328 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C87F98-1DFC-4881-831A-B44C874EDCA8}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>255</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>257</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>258</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>260</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>261</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>262</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>263</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>264</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>265</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>266</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>267</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>267</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>268</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>269</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>270</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>271</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>272</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>273</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>274</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>275</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>276</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>277</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>278</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>279</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>280</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>281</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>282</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>283</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>284</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>285</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>286</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFB557D-C3D9-4247-B3E8-D2CB612D3951}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B668390D-356A-4CA1-A30D-1579C180D840}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>313</v>
       </c>
@@ -5474,7 +5889,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>242</v>
       </c>
@@ -5482,7 +5897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>243</v>
       </c>
@@ -5490,7 +5905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>244</v>
       </c>
@@ -5498,7 +5913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>245</v>
       </c>
@@ -5506,7 +5921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>246</v>
       </c>
@@ -5514,7 +5929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>247</v>
       </c>
@@ -5522,7 +5937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>248</v>
       </c>
@@ -5530,7 +5945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>249</v>
       </c>
@@ -5538,7 +5953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>250</v>
       </c>
@@ -5546,7 +5961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>251</v>
       </c>
@@ -5554,7 +5969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>252</v>
       </c>
@@ -5562,7 +5977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>253</v>
       </c>
@@ -5570,12 +5985,303 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>254</v>
       </c>
       <c r="B14">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4B556-EE04-49CA-9D5E-4592A2A88749}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="23.25" customHeight="1">
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+      <c r="T1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE6B859-A1CF-4E84-99BB-A8683D41C07A}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" t="s">
+        <v>341</v>
+      </c>
+      <c r="T1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="Q4" t="s">
+        <v>334</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="Q5" t="s">
+        <v>334</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1401B332-F828-496D-91D8-FAB06031F5E3}">
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="S1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5586,18 +6292,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC12914A-E283-4D30-B8B3-3743CEF73AB8}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>314</v>
       </c>
@@ -5617,7 +6323,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>255</v>
       </c>
@@ -5637,7 +6343,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>256</v>
       </c>
@@ -5657,7 +6363,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>257</v>
       </c>
@@ -5677,7 +6383,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>258</v>
       </c>
@@ -5697,7 +6403,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>259</v>
       </c>
@@ -5717,7 +6423,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>260</v>
       </c>
@@ -5737,7 +6443,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>261</v>
       </c>
@@ -5757,7 +6463,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>262</v>
       </c>
@@ -5777,7 +6483,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>263</v>
       </c>
@@ -5797,7 +6503,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>264</v>
       </c>
@@ -5817,7 +6523,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>265</v>
       </c>
@@ -5836,8 +6542,11 @@
       <c r="F12" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>266</v>
       </c>
@@ -5856,8 +6565,11 @@
       <c r="F13" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>267</v>
       </c>
@@ -5877,7 +6589,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>267</v>
       </c>
@@ -5897,7 +6609,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>268</v>
       </c>
@@ -5917,7 +6629,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>269</v>
       </c>
@@ -5937,7 +6649,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>270</v>
       </c>
@@ -5957,7 +6669,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>271</v>
       </c>
@@ -5977,7 +6689,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>272</v>
       </c>
@@ -5997,7 +6709,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>273</v>
       </c>
@@ -6017,7 +6729,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>274</v>
       </c>
@@ -6037,7 +6749,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>275</v>
       </c>
@@ -6057,7 +6769,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>276</v>
       </c>
@@ -6077,7 +6789,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>277</v>
       </c>
@@ -6097,7 +6809,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>278</v>
       </c>
@@ -6117,7 +6829,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>279</v>
       </c>
@@ -6137,7 +6849,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>280</v>
       </c>
@@ -6157,7 +6869,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>281</v>
       </c>
@@ -6177,7 +6889,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>282</v>
       </c>
@@ -6197,7 +6909,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>283</v>
       </c>
@@ -6217,7 +6929,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>284</v>
       </c>
@@ -6237,7 +6949,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>285</v>
       </c>
@@ -6257,7 +6969,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>286</v>
       </c>
@@ -6291,9 +7003,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="6" max="6" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>313</v>
       </c>
@@ -6313,7 +7028,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>242</v>
       </c>
@@ -6333,7 +7048,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>243</v>
       </c>
@@ -6353,7 +7068,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>244</v>
       </c>
@@ -6373,7 +7088,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>245</v>
       </c>
@@ -6393,7 +7108,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>246</v>
       </c>
@@ -6413,7 +7128,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>247</v>
       </c>
@@ -6433,7 +7148,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>248</v>
       </c>
@@ -6453,7 +7168,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>249</v>
       </c>
@@ -6473,7 +7188,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>250</v>
       </c>
@@ -6493,7 +7208,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>251</v>
       </c>
@@ -6513,7 +7228,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>252</v>
       </c>
@@ -6533,7 +7248,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>253</v>
       </c>
@@ -6553,7 +7268,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>254</v>
       </c>
@@ -6584,15 +7299,15 @@
   <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6">
       <c r="B1" s="3" t="s">
         <v>250</v>
       </c>
@@ -6616,36 +7331,129 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AEB0F2-87FF-4E03-BD60-85A66266D33C}">
-  <dimension ref="B1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE1C1A-2034-4A46-AE3B-A01624A5A159}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="117" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
-    <col min="5" max="5" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>274</v>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -6656,129 +7464,69 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE1C1A-2034-4A46-AE3B-A01624A5A159}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A792B55D-319B-4E65-A122-54605593F8E4}">
+  <dimension ref="B1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="2:6" s="3" customFormat="1">
+      <c r="B1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AEB0F2-87FF-4E03-BD60-85A66266D33C}">
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="117" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>308</v>
+    <row r="1" spans="2:6" ht="18">
+      <c r="B1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -6788,20 +7536,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42481D7D-C361-4390-9C66-21C0557E2C3A}">
   <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6">
       <c r="B1" s="3" t="s">
         <v>250</v>
       </c>
@@ -6818,17 +7566,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1426E026-190A-48FE-9D38-59683A1BCAEF}">
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F248" sqref="F248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -6836,7 +7584,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6844,7 +7592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6852,7 +7600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6860,7 +7608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6868,7 +7616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6876,7 +7624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6884,7 +7632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6892,7 +7640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6900,7 +7648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6908,7 +7656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6916,7 +7664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6924,7 +7672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6932,7 +7680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6940,7 +7688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6948,7 +7696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6956,7 +7704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6964,7 +7712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6972,7 +7720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6980,7 +7728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6988,7 +7736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6996,7 +7744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7004,7 +7752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7012,7 +7760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7020,7 +7768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7028,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7036,7 +7784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7044,7 +7792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7052,7 +7800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7060,7 +7808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7068,7 +7816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7076,7 +7824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7084,7 +7832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7092,7 +7840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7100,7 +7848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7108,7 +7856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7116,7 +7864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7124,7 +7872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7132,7 +7880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -7140,7 +7888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -7148,7 +7896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -7156,7 +7904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -7164,7 +7912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -7172,7 +7920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -7180,7 +7928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7188,7 +7936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7196,7 +7944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7204,7 +7952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7212,7 +7960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7220,7 +7968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7228,7 +7976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7236,7 +7984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -7244,7 +7992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7252,7 +8000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7260,7 +8008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7268,7 +8016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7276,7 +8024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7284,7 +8032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7292,7 +8040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7300,7 +8048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7308,7 +8056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7316,7 +8064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7324,7 +8072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7332,7 +8080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7340,7 +8088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7348,7 +8096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7356,7 +8104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7364,7 +8112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7372,7 +8120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7380,7 +8128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7388,7 +8136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7396,7 +8144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7404,7 +8152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7412,7 +8160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7420,7 +8168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7428,7 +8176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7436,7 +8184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7444,7 +8192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7452,7 +8200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7460,7 +8208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7468,7 +8216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7476,7 +8224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7484,7 +8232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7492,7 +8240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -7500,7 +8248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -7508,7 +8256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -7516,7 +8264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -7524,7 +8272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -7532,7 +8280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -7540,7 +8288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -7548,7 +8296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -7556,7 +8304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -7564,7 +8312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -7572,7 +8320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>91</v>
       </c>
@@ -7580,7 +8328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>92</v>
       </c>
@@ -7588,7 +8336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>93</v>
       </c>
@@ -7596,7 +8344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7604,7 +8352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>95</v>
       </c>
@@ -7612,7 +8360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>96</v>
       </c>
@@ -7620,7 +8368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>97</v>
       </c>
@@ -7628,7 +8376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>98</v>
       </c>
@@ -7636,7 +8384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>99</v>
       </c>
@@ -7644,7 +8392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>100</v>
       </c>
@@ -7652,7 +8400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>101</v>
       </c>
@@ -7660,7 +8408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>102</v>
       </c>
@@ -7668,7 +8416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>103</v>
       </c>
@@ -7676,7 +8424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>104</v>
       </c>
@@ -7684,7 +8432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>105</v>
       </c>
@@ -7692,7 +8440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>106</v>
       </c>
@@ -7700,7 +8448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>107</v>
       </c>
@@ -7708,7 +8456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>108</v>
       </c>
@@ -7716,7 +8464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>109</v>
       </c>
@@ -7724,7 +8472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>110</v>
       </c>
@@ -7732,7 +8480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>111</v>
       </c>
@@ -7740,7 +8488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>112</v>
       </c>
@@ -7748,7 +8496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>113</v>
       </c>
@@ -7756,7 +8504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>114</v>
       </c>
@@ -7764,7 +8512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>115</v>
       </c>
@@ -7772,7 +8520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>116</v>
       </c>
@@ -7780,7 +8528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>117</v>
       </c>
@@ -7788,7 +8536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>118</v>
       </c>
@@ -7796,7 +8544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>119</v>
       </c>
@@ -7804,7 +8552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>120</v>
       </c>
@@ -7812,7 +8560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>121</v>
       </c>
@@ -7820,7 +8568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>122</v>
       </c>
@@ -7828,7 +8576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>123</v>
       </c>
@@ -7836,7 +8584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>124</v>
       </c>
@@ -7844,7 +8592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>125</v>
       </c>
@@ -7852,7 +8600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -7860,7 +8608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -7868,7 +8616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>128</v>
       </c>
@@ -7876,7 +8624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>129</v>
       </c>
@@ -7884,7 +8632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>130</v>
       </c>
@@ -7892,7 +8640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>131</v>
       </c>
@@ -7900,7 +8648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>132</v>
       </c>
@@ -7908,7 +8656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>133</v>
       </c>
@@ -7916,7 +8664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>134</v>
       </c>
@@ -7924,7 +8672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>135</v>
       </c>
@@ -7932,7 +8680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>136</v>
       </c>
@@ -7940,7 +8688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>137</v>
       </c>
@@ -7948,7 +8696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>138</v>
       </c>
@@ -7956,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>139</v>
       </c>
@@ -7964,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>140</v>
       </c>
@@ -7972,7 +8720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>141</v>
       </c>
@@ -7980,7 +8728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>142</v>
       </c>
@@ -7988,7 +8736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>143</v>
       </c>
@@ -7996,7 +8744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>144</v>
       </c>
@@ -8004,7 +8752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>145</v>
       </c>
@@ -8012,7 +8760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>146</v>
       </c>
@@ -8020,7 +8768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>147</v>
       </c>
@@ -8028,7 +8776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>148</v>
       </c>
@@ -8036,7 +8784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>149</v>
       </c>
@@ -8044,7 +8792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>150</v>
       </c>
@@ -8052,7 +8800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>151</v>
       </c>
@@ -8060,7 +8808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>152</v>
       </c>
@@ -8068,7 +8816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>153</v>
       </c>
@@ -8076,7 +8824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>154</v>
       </c>
@@ -8084,7 +8832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>155</v>
       </c>
@@ -8092,7 +8840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>156</v>
       </c>
@@ -8100,7 +8848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>157</v>
       </c>
@@ -8108,7 +8856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>158</v>
       </c>
@@ -8116,7 +8864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>159</v>
       </c>
@@ -8124,7 +8872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>160</v>
       </c>
@@ -8132,7 +8880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>161</v>
       </c>
@@ -8140,7 +8888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>162</v>
       </c>
@@ -8148,7 +8896,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>163</v>
       </c>
@@ -8156,7 +8904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>164</v>
       </c>
@@ -8164,7 +8912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>165</v>
       </c>
@@ -8172,7 +8920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>166</v>
       </c>
@@ -8180,7 +8928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>167</v>
       </c>
@@ -8188,7 +8936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>168</v>
       </c>
@@ -8196,7 +8944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>169</v>
       </c>
@@ -8204,7 +8952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>170</v>
       </c>
@@ -8212,7 +8960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>171</v>
       </c>
@@ -8220,7 +8968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>172</v>
       </c>
@@ -8228,7 +8976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>173</v>
       </c>
@@ -8236,7 +8984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>174</v>
       </c>
@@ -8244,7 +8992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>175</v>
       </c>
@@ -8252,7 +9000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>176</v>
       </c>
@@ -8260,7 +9008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>177</v>
       </c>
@@ -8268,7 +9016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>178</v>
       </c>
@@ -8276,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>179</v>
       </c>
@@ -8284,7 +9032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>180</v>
       </c>
@@ -8292,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>181</v>
       </c>
@@ -8300,7 +9048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>182</v>
       </c>
@@ -8308,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>183</v>
       </c>
@@ -8316,7 +9064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>183</v>
       </c>
@@ -8324,7 +9072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>184</v>
       </c>
@@ -8332,7 +9080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>185</v>
       </c>
@@ -8340,7 +9088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>186</v>
       </c>
@@ -8348,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>187</v>
       </c>
@@ -8356,7 +9104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>188</v>
       </c>
@@ -8364,7 +9112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>188</v>
       </c>
@@ -8372,7 +9120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>189</v>
       </c>
@@ -8380,7 +9128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>190</v>
       </c>
@@ -8388,7 +9136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>191</v>
       </c>
@@ -8396,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>192</v>
       </c>
@@ -8404,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>193</v>
       </c>
@@ -8412,7 +9160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>193</v>
       </c>
@@ -8420,7 +9168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>194</v>
       </c>
@@ -8428,7 +9176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>195</v>
       </c>
@@ -8436,7 +9184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>196</v>
       </c>
@@ -8444,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>197</v>
       </c>
@@ -8452,7 +9200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>198</v>
       </c>
@@ -8460,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>199</v>
       </c>
@@ -8468,7 +9216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>200</v>
       </c>
@@ -8476,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>201</v>
       </c>
@@ -8484,7 +9232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>202</v>
       </c>
@@ -8492,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>203</v>
       </c>
@@ -8500,7 +9248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>204</v>
       </c>
@@ -8508,7 +9256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>205</v>
       </c>
@@ -8516,7 +9264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>206</v>
       </c>
@@ -8524,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>207</v>
       </c>
@@ -8532,7 +9280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>208</v>
       </c>
@@ -8540,7 +9288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>209</v>
       </c>
@@ -8548,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>210</v>
       </c>
@@ -8556,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>211</v>
       </c>
@@ -8564,7 +9312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>212</v>
       </c>
@@ -8572,7 +9320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>213</v>
       </c>
@@ -8580,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>214</v>
       </c>
@@ -8588,7 +9336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>215</v>
       </c>
@@ -8596,7 +9344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>216</v>
       </c>
@@ -8604,7 +9352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>217</v>
       </c>
@@ -8612,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>218</v>
       </c>
@@ -8620,7 +9368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>219</v>
       </c>
@@ -8628,7 +9376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>220</v>
       </c>
@@ -8636,7 +9384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>221</v>
       </c>
@@ -8644,7 +9392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>222</v>
       </c>
@@ -8652,7 +9400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>223</v>
       </c>
@@ -8660,7 +9408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>224</v>
       </c>
@@ -8668,7 +9416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>225</v>
       </c>
@@ -8676,7 +9424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>226</v>
       </c>
@@ -8684,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>227</v>
       </c>
@@ -8692,7 +9440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>228</v>
       </c>
@@ -8700,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>229</v>
       </c>
@@ -8708,7 +9456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>230</v>
       </c>
@@ -8716,7 +9464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>231</v>
       </c>
@@ -8724,7 +9472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>232</v>
       </c>
@@ -8732,7 +9480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>233</v>
       </c>
@@ -8740,7 +9488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>234</v>
       </c>
@@ -8748,7 +9496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>235</v>
       </c>
@@ -8756,7 +9504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>236</v>
       </c>
@@ -8764,7 +9512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>237</v>
       </c>
@@ -8772,7 +9520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>238</v>
       </c>
@@ -8780,7 +9528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>239</v>
       </c>
@@ -8788,7 +9536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>240</v>
       </c>
@@ -8796,7 +9544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>241</v>
       </c>
@@ -8809,292 +9557,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C87F98-1DFC-4881-831A-B44C874EDCA8}">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>255</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>256</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>257</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>258</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>259</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>260</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>261</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>262</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>263</v>
-      </c>
-      <c r="B10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>264</v>
-      </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>265</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>266</v>
-      </c>
-      <c r="B13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>267</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>267</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>268</v>
-      </c>
-      <c r="B16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>269</v>
-      </c>
-      <c r="B17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>270</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>271</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>272</v>
-      </c>
-      <c r="B20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>273</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>274</v>
-      </c>
-      <c r="B22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>275</v>
-      </c>
-      <c r="B23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>276</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>277</v>
-      </c>
-      <c r="B25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>278</v>
-      </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>279</v>
-      </c>
-      <c r="B27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>280</v>
-      </c>
-      <c r="B28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>281</v>
-      </c>
-      <c r="B29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>282</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>283</v>
-      </c>
-      <c r="B31">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>284</v>
-      </c>
-      <c r="B32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>285</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>286</v>
-      </c>
-      <c r="B34">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DB table design.xlsx
+++ b/DB table design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29AE9013-7A3C-2840-B151-6F7DB7AEBCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722E4030-6C47-0A4A-A9C2-523B7E7680EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <sheet name="scnenario1" sheetId="25" r:id="rId13"/>
     <sheet name="scenario2" sheetId="26" r:id="rId14"/>
     <sheet name="scenario3" sheetId="27" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Brand!$A$2:$E$177</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="348">
   <si>
     <t>8 SECONDS</t>
   </si>
@@ -1153,6 +1154,10 @@
   </si>
   <si>
     <t>bought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6290,6 +6295,19 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8226EEF-9759-3443-984F-74B61442D160}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC12914A-E283-4D30-B8B3-3743CEF73AB8}">
   <dimension ref="A1:H34"/>
@@ -7465,15 +7483,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A792B55D-319B-4E65-A122-54605593F8E4}">
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="3" customFormat="1">
+    <row r="1" spans="2:7" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
         <v>331</v>
       </c>
@@ -7488,6 +7509,9 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>346</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/DB table design.xlsx
+++ b/DB table design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3A66CE-F9E5-D644-A3CE-F671FCFAB7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F87CA09-4E23-F94B-BE85-AE85EF800AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brand" sheetId="1" r:id="rId1"/>

--- a/DB table design.xlsx
+++ b/DB table design.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F87CA09-4E23-F94B-BE85-AE85EF800AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4BCBAA-F737-AD4D-AF8C-EF3CFB0F7057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11420" windowHeight="14720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brand" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="342">
   <si>
     <t>8 SECONDS</t>
   </si>
@@ -1142,6 +1142,10 @@
   </si>
   <si>
     <t>*공란 : 이벤트몰,편집샵 *혹은 카테고리내 브랜드 판매상품 종류가 다양해, 상중하 기준을 세우기 힘든 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satisfaction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,10 +1702,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -7350,6 +7355,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C87F98-1DFC-4881-831A-B44C874EDCA8}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7638,6 +7644,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFB557D-C3D9-4247-B3E8-D2CB612D3951}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7662,6 +7669,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B668390D-356A-4CA1-A30D-1579C180D840}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7790,10 +7798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC12914A-E283-4D30-B8B3-3743CEF73AB8}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -8495,6 +8504,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E747F6-6250-4D9A-969D-16A040183770}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8794,6 +8804,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A199D8-3E3B-44B6-94FB-3170FB3149F6}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -8830,10 +8841,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE1C1A-2034-4A46-AE3B-A01624A5A159}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -8963,10 +8975,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A792B55D-319B-4E65-A122-54605593F8E4}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -9002,10 +9015,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AEB0F2-87FF-4E03-BD60-85A66266D33C}">
-  <dimension ref="B1:F1"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="117" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="117" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
@@ -9014,9 +9028,10 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18">
+    <row r="1" spans="2:7" ht="18">
       <c r="B1" s="3" t="s">
         <v>242</v>
       </c>
@@ -9029,7 +9044,10 @@
       <c r="E1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9042,6 +9060,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42481D7D-C361-4390-9C66-21C0557E2C3A}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9072,9 +9091,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1426E026-190A-48FE-9D38-59683A1BCAEF}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>

--- a/DB table design.xlsx
+++ b/DB table design.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongdong-yeon/Documents/GitHub/pumasi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4BCBAA-F737-AD4D-AF8C-EF3CFB0F7057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A82DAF-FDC7-4A36-ACCD-D6D0F609E6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="11420" windowHeight="14720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brand" sheetId="1" r:id="rId1"/>
-    <sheet name="Food" sheetId="12" r:id="rId2"/>
-    <sheet name="Moving" sheetId="13" r:id="rId3"/>
-    <sheet name="User" sheetId="7" r:id="rId4"/>
-    <sheet name="Category" sheetId="11" r:id="rId5"/>
-    <sheet name="Path" sheetId="16" r:id="rId6"/>
+    <sheet name="Food_escalator_elevator" sheetId="12" r:id="rId2"/>
+    <sheet name="User" sheetId="7" r:id="rId3"/>
+    <sheet name="Category" sheetId="11" r:id="rId4"/>
+    <sheet name="ShoppingMall" sheetId="25" r:id="rId5"/>
+    <sheet name="RecommendedPath" sheetId="16" r:id="rId6"/>
     <sheet name="User_Brand" sheetId="8" r:id="rId7"/>
     <sheet name=" User_Path" sheetId="9" r:id="rId8"/>
     <sheet name="Category_Brand" sheetId="6" r:id="rId9"/>
-    <sheet name="Cathegory_Food" sheetId="14" r:id="rId10"/>
+    <sheet name="Cathegory_FoodEscalatorElevator" sheetId="14" r:id="rId10"/>
     <sheet name="Path_Brand" sheetId="24" r:id="rId11"/>
-    <sheet name="Cathegory_Moving" sheetId="15" r:id="rId12"/>
+    <sheet name="ShoppingMall_Category" sheetId="31" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Brand!$A$2:$E$177</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="342">
   <si>
     <t>8 SECONDS</t>
   </si>
@@ -876,10 +876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스트릿 츄러스</t>
   </si>
   <si>
@@ -908,12 +904,6 @@
   </si>
   <si>
     <t>스타벅스</t>
-  </si>
-  <si>
-    <t>회전목마</t>
-  </si>
-  <si>
-    <t>미니트레인</t>
   </si>
   <si>
     <t>이마트 24</t>
@@ -985,26 +975,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PriceLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,10 +991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추후 추가예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>편의점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1029,10 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>에스컬레이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1077,7 +1043,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음식점도 카페도 아니니 삭제해야함</t>
+    <t>하</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLSAINTS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIESEL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGOIST</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>G.BOTTICELLI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JIGOTT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONITSUKA TIGER(신발)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIUSEPPE ZANOTTI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPER </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mall#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MallName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스컬레이터밑엘리베이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파주프리미엄아울렛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brandRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satisfication</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1089,63 +1135,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category#</t>
+    <t>Chosen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>중</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>상</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALLSAINTS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIESEL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGOIST</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>G.BOTTICELLI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JIGOTT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONITSUKA TIGER(신발)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAMPER (슈즈로이동)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIUSEPPE ZANOTTI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
+    <t>*공란 : 이벤트몰,편집샵 *혹은 카테고리내 브랜드 판매상품 종류가 다양해, 상중하 기준을 세우기 힘든 경우</t>
+  </si>
+  <si>
+    <t>PreferAge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*공란 : 이벤트몰,편집샵 *혹은 카테고리내 브랜드 판매상품 종류가 다양해, 상중하 기준을 세우기 힘든 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satisfaction</t>
+    <t>PreferSex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1215,6 +1216,20 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1325,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1392,9 +1407,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1412,6 +1424,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,21 +1724,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L242"/>
+  <dimension ref="A1:O242"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="19" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>235</v>
@@ -1735,19 +1756,24 @@
         <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="I1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="O1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -1765,13 +1791,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H2" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="8">
         <v>2</v>
@@ -1789,13 +1815,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H3" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -1813,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H4" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="10">
         <v>4</v>
@@ -1833,13 +1859,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H5" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -1857,19 +1883,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H6" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D7" s="11">
         <v>502</v>
@@ -1881,13 +1907,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H7" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="12">
         <v>7</v>
@@ -1905,13 +1931,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H8" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -1929,13 +1955,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H9" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="8">
         <v>9</v>
@@ -1953,13 +1979,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H10" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="12">
         <v>10</v>
@@ -1977,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H11" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="10">
         <v>11</v>
@@ -1997,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H12" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -2021,13 +2047,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H13" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="10">
         <v>13</v>
@@ -2045,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H14" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="10">
         <v>14</v>
@@ -2069,13 +2095,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H15" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="10">
         <v>15</v>
@@ -2093,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H16" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="13">
         <v>16</v>
@@ -2117,7 +2143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -2135,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H18" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="10">
         <v>18</v>
@@ -2159,13 +2185,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H19" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="10">
         <v>19</v>
@@ -2183,13 +2209,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H20" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -2207,13 +2233,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H21" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="10">
         <v>21</v>
@@ -2231,13 +2257,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H22" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="10">
         <v>22</v>
@@ -2259,7 +2285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="14">
         <v>23</v>
@@ -2277,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="13">
         <v>24</v>
@@ -2299,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="7">
         <v>25</v>
@@ -2317,13 +2343,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H26" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="9">
         <v>26</v>
@@ -2341,13 +2367,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H27" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="7">
         <v>27</v>
@@ -2365,13 +2391,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H28" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="15">
         <v>28</v>
@@ -2393,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="11">
         <v>29</v>
@@ -2411,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="9">
         <v>30</v>
@@ -2429,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H31" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="15">
         <v>31</v>
@@ -2457,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="11">
         <v>32</v>
@@ -2475,13 +2501,13 @@
         <v>1</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H33" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="11">
         <v>33</v>
@@ -2499,13 +2525,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H34" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
       <c r="B35" s="8">
         <v>34</v>
@@ -2523,13 +2549,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H35" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="9">
         <v>35</v>
@@ -2547,13 +2573,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H36" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="12">
         <v>36</v>
@@ -2571,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H37" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="8">
         <v>37</v>
@@ -2595,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H38" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="10">
         <v>38</v>
@@ -2619,13 +2645,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H39" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="12">
         <v>39</v>
@@ -2643,13 +2669,13 @@
         <v>1</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H40" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="10">
         <v>40</v>
@@ -2667,13 +2693,13 @@
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H41" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="9">
         <v>41</v>
@@ -2691,13 +2717,13 @@
         <v>1</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H42" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="9">
         <v>42</v>
@@ -2715,13 +2741,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H43" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="7">
         <v>43</v>
@@ -2739,13 +2765,13 @@
         <v>1</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H44" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="16">
         <v>44</v>
@@ -2763,19 +2789,19 @@
         <v>1</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H45" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="16">
         <v>45</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D46" s="16">
         <v>641</v>
@@ -2787,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H46" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="9">
         <v>46</v>
@@ -2811,13 +2837,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H47" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="9">
         <v>47</v>
@@ -2835,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H48" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="8">
         <v>48</v>
@@ -2859,19 +2885,19 @@
         <v>1</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H49" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="16">
         <v>49</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D50" s="16">
         <v>755</v>
@@ -2883,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H50" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="9">
         <v>50</v>
@@ -2907,13 +2933,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H51" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="10">
         <v>51</v>
@@ -2931,13 +2957,13 @@
         <v>1</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H52" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="9">
         <v>52</v>
@@ -2955,13 +2981,13 @@
         <v>1</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H53" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="10">
         <v>53</v>
@@ -2979,13 +3005,13 @@
         <v>1</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H54" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="9">
         <v>54</v>
@@ -3003,13 +3029,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H55" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="15">
         <v>55</v>
@@ -3031,13 +3057,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="11">
         <v>56</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D57" s="11">
         <v>347</v>
@@ -3049,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H57" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="15">
         <v>57</v>
@@ -3077,7 +3103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="7">
         <v>58</v>
@@ -3095,13 +3121,13 @@
         <v>1</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H59" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="10">
         <v>59</v>
@@ -3115,13 +3141,13 @@
         <v>1</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H60" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="16">
         <v>60</v>
@@ -3139,13 +3165,13 @@
         <v>1</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H61" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62" s="7">
         <v>61</v>
@@ -3163,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H62" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="15">
         <v>62</v>
@@ -3191,7 +3217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="7">
         <v>63</v>
@@ -3209,13 +3235,13 @@
         <v>1</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H64" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="10">
         <v>64</v>
@@ -3233,13 +3259,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H65" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66" s="7">
         <v>65</v>
@@ -3257,13 +3283,13 @@
         <v>1</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H66" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="11">
         <v>66</v>
@@ -3285,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
       <c r="B68" s="10">
         <v>67</v>
@@ -3303,13 +3329,13 @@
         <v>1</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H68" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="10">
         <v>68</v>
@@ -3327,13 +3353,13 @@
         <v>1</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H69" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="8">
         <v>69</v>
@@ -3351,13 +3377,13 @@
         <v>1</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H70" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="12">
         <v>70</v>
@@ -3375,13 +3401,13 @@
         <v>1</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H71" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="11">
         <v>71</v>
@@ -3399,13 +3425,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H72" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="9">
         <v>72</v>
@@ -3419,13 +3445,13 @@
         <v>1</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H73" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="19"/>
       <c r="B74" s="7">
         <v>73</v>
@@ -3443,19 +3469,19 @@
         <v>1</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H74" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="19"/>
       <c r="B75" s="16">
         <v>74</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D75" s="16">
         <v>346</v>
@@ -3467,13 +3493,13 @@
         <v>1</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H75" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="19"/>
       <c r="B76" s="11">
         <v>75</v>
@@ -3491,13 +3517,13 @@
         <v>1</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H76" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="9">
         <v>76</v>
@@ -3515,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H77" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="19"/>
       <c r="B78" s="11">
         <v>77</v>
@@ -3539,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H78" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="19"/>
       <c r="B79" s="13">
         <v>78</v>
@@ -3563,7 +3589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="9">
         <v>79</v>
@@ -3581,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H80" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
       <c r="B81" s="9">
         <v>80</v>
@@ -3605,13 +3631,13 @@
         <v>1</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H81" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="19"/>
       <c r="B82" s="12">
         <v>81</v>
@@ -3629,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H82" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
       <c r="B83" s="16">
         <v>82</v>
@@ -3653,13 +3679,13 @@
         <v>1</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H83" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
       <c r="B84" s="9">
         <v>83</v>
@@ -3677,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H84" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
       <c r="B85" s="10">
         <v>84</v>
@@ -3705,7 +3731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="19"/>
       <c r="B86" s="7">
         <v>85</v>
@@ -3723,13 +3749,13 @@
         <v>1</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H86" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="19"/>
       <c r="B87" s="10">
         <v>86</v>
@@ -3747,13 +3773,13 @@
         <v>1</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H87" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="10">
         <v>87</v>
@@ -3771,13 +3797,13 @@
         <v>1</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H88" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="19"/>
       <c r="B89" s="8">
         <v>88</v>
@@ -3795,13 +3821,13 @@
         <v>1</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H89" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="16">
         <v>89</v>
@@ -3819,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H90" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="14">
         <v>90</v>
@@ -3843,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="16">
         <v>91</v>
@@ -3861,13 +3887,13 @@
         <v>1</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H92" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="10">
         <v>92</v>
@@ -3885,13 +3911,13 @@
         <v>1</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H93" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="9">
         <v>93</v>
@@ -3909,13 +3935,13 @@
         <v>1</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H94" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="11">
         <v>94</v>
@@ -3933,13 +3959,13 @@
         <v>1</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H95" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="19"/>
       <c r="B96" s="15">
         <v>95</v>
@@ -3961,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="16">
         <v>96</v>
@@ -3979,13 +4005,13 @@
         <v>1</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H97" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="9">
         <v>97</v>
@@ -4003,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H98" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="16">
         <v>98</v>
@@ -4027,13 +4053,13 @@
         <v>1</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H99" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
       <c r="B100" s="9">
         <v>99</v>
@@ -4051,13 +4077,13 @@
         <v>1</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H100" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="19"/>
       <c r="B101" s="8">
         <v>100</v>
@@ -4075,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H101" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
       <c r="B102" s="9">
         <v>101</v>
@@ -4099,13 +4125,13 @@
         <v>1</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H102" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
       <c r="B103" s="10">
         <v>102</v>
@@ -4119,13 +4145,13 @@
         <v>1</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H103" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
       <c r="B104" s="15">
         <v>103</v>
@@ -4139,13 +4165,13 @@
         <v>1</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H104" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="B105" s="16">
         <v>104</v>
@@ -4163,13 +4189,13 @@
         <v>1</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H105" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="19"/>
       <c r="B106" s="10">
         <v>105</v>
@@ -4187,13 +4213,13 @@
         <v>1</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H106" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="9">
         <v>106</v>
@@ -4211,13 +4237,13 @@
         <v>1</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H107" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="9">
         <v>107</v>
@@ -4235,13 +4261,13 @@
         <v>1</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H108" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
       <c r="B109" s="9">
         <v>108</v>
@@ -4259,13 +4285,13 @@
         <v>1</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H109" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
       <c r="B110" s="9">
         <v>109</v>
@@ -4283,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H110" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="19"/>
       <c r="B111" s="10">
         <v>110</v>
@@ -4307,18 +4333,18 @@
         <v>1</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H111" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18">
-      <c r="A112" s="23"/>
+    <row r="112" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
       <c r="B112" s="9">
         <v>111</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="24" t="s">
         <v>147</v>
       </c>
       <c r="D112" s="9">
@@ -4331,13 +4357,13 @@
         <v>1</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H112" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
       <c r="B113" s="15">
         <v>112</v>
@@ -4359,7 +4385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
       <c r="B114" s="10">
         <v>113</v>
@@ -4377,13 +4403,13 @@
         <v>1</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H114" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
       <c r="B115" s="9">
         <v>114</v>
@@ -4401,13 +4427,13 @@
         <v>1</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H115" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="19"/>
       <c r="B116" s="10">
         <v>115</v>
@@ -4421,13 +4447,13 @@
         <v>1</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H116" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
       <c r="B117" s="17">
         <v>116</v>
@@ -4449,7 +4475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="19"/>
       <c r="B118" s="16">
         <v>117</v>
@@ -4467,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H118" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="19"/>
       <c r="B119" s="10">
         <v>118</v>
@@ -4495,7 +4521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
       <c r="B120" s="12">
         <v>119</v>
@@ -4513,19 +4539,19 @@
         <v>1</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H120" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18">
+    <row r="121" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
       <c r="B121" s="20">
         <v>120</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D121" s="20">
         <v>475</v>
@@ -4537,13 +4563,13 @@
         <v>1</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H121" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="15">
         <v>121</v>
@@ -4565,7 +4591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
       <c r="B123" s="17">
         <v>122</v>
@@ -4587,7 +4613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
       <c r="B124" s="9">
         <v>123</v>
@@ -4605,13 +4631,13 @@
         <v>1</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H124" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="19"/>
       <c r="B125" s="9">
         <v>124</v>
@@ -4629,13 +4655,13 @@
         <v>1</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H125" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="19"/>
       <c r="B126" s="9">
         <v>125</v>
@@ -4653,13 +4679,13 @@
         <v>1</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H126" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
       <c r="B127" s="7">
         <v>126</v>
@@ -4677,13 +4703,13 @@
         <v>1</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H127" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
       <c r="B128" s="16">
         <v>127</v>
@@ -4701,13 +4727,13 @@
         <v>1</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H128" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="19"/>
       <c r="B129" s="9">
         <v>128</v>
@@ -4725,13 +4751,13 @@
         <v>1</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H129" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="19"/>
       <c r="B130" s="10">
         <v>129</v>
@@ -4745,13 +4771,13 @@
         <v>1</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H130" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="19"/>
       <c r="B131" s="11">
         <v>130</v>
@@ -4769,7 +4795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="19"/>
       <c r="B132" s="15">
         <v>131</v>
@@ -4791,7 +4817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
       <c r="B133" s="10">
         <v>132</v>
@@ -4805,13 +4831,13 @@
         <v>1</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H133" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
       <c r="B134" s="12">
         <v>133</v>
@@ -4829,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H134" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
       <c r="B135" s="8">
         <v>134</v>
@@ -4853,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H135" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="19"/>
       <c r="B136" s="12">
         <v>135</v>
@@ -4873,13 +4899,13 @@
         <v>1</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H136" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
       <c r="B137" s="8">
         <v>136</v>
@@ -4897,13 +4923,13 @@
         <v>1</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H137" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="19"/>
       <c r="B138" s="12">
         <v>137</v>
@@ -4921,13 +4947,13 @@
         <v>1</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H138" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="19"/>
       <c r="B139" s="14">
         <v>138</v>
@@ -4949,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="19"/>
       <c r="B140" s="14">
         <v>139</v>
@@ -4967,13 +4993,13 @@
         <v>1</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H140" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="19"/>
       <c r="B141" s="12">
         <v>140</v>
@@ -4987,13 +5013,13 @@
         <v>1</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H141" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="19"/>
       <c r="B142" s="16">
         <v>141</v>
@@ -5011,13 +5037,13 @@
         <v>1</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H142" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="19"/>
       <c r="B143" s="16">
         <v>142</v>
@@ -5035,13 +5061,13 @@
         <v>1</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H143" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="19"/>
       <c r="B144" s="9">
         <v>143</v>
@@ -5059,13 +5085,13 @@
         <v>1</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H144" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="19"/>
       <c r="B145" s="12">
         <v>144</v>
@@ -5083,13 +5109,13 @@
         <v>1</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H145" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="19"/>
       <c r="B146" s="12">
         <v>145</v>
@@ -5107,13 +5133,13 @@
         <v>1</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H146" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
       <c r="B147" s="13">
         <v>146</v>
@@ -5135,7 +5161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="19"/>
       <c r="B148" s="9">
         <v>147</v>
@@ -5153,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H148" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="19"/>
       <c r="B149" s="15">
         <v>148</v>
@@ -5181,7 +5207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="19"/>
       <c r="B150" s="16">
         <v>149</v>
@@ -5199,13 +5225,13 @@
         <v>1</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H150" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="19"/>
       <c r="B151" s="17">
         <v>150</v>
@@ -5227,7 +5253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="19"/>
       <c r="B152" s="7">
         <v>151</v>
@@ -5245,13 +5271,13 @@
         <v>1</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H152" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
       <c r="B153" s="8">
         <v>152</v>
@@ -5269,13 +5295,13 @@
         <v>1</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H153" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="19"/>
       <c r="B154" s="16">
         <v>153</v>
@@ -5293,13 +5319,13 @@
         <v>1</v>
       </c>
       <c r="G154" s="16" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H154" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="19"/>
       <c r="B155" s="12">
         <v>154</v>
@@ -5313,13 +5339,13 @@
         <v>1</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H155" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="19"/>
       <c r="B156" s="8">
         <v>155</v>
@@ -5337,13 +5363,13 @@
         <v>1</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H156" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="19"/>
       <c r="B157" s="9">
         <v>156</v>
@@ -5357,13 +5383,13 @@
         <v>1</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H157" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="19"/>
       <c r="B158" s="16">
         <v>157</v>
@@ -5381,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H158" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="18">
+    <row r="159" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
       <c r="B159" s="21">
         <v>158</v>
@@ -5405,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H159" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
       <c r="B160" s="10">
         <v>159</v>
@@ -5425,13 +5451,13 @@
         <v>1</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H160" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="19"/>
       <c r="B161" s="16">
         <v>160</v>
@@ -5449,13 +5475,13 @@
         <v>1</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H161" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="19"/>
       <c r="B162" s="9">
         <v>161</v>
@@ -5473,13 +5499,13 @@
         <v>1</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H162" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="19"/>
       <c r="B163" s="12">
         <v>162</v>
@@ -5497,13 +5523,13 @@
         <v>1</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H163" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="19"/>
       <c r="B164" s="10">
         <v>163</v>
@@ -5517,13 +5543,13 @@
         <v>1</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H164" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="19"/>
       <c r="B165" s="10">
         <v>164</v>
@@ -5541,13 +5567,13 @@
         <v>1</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H165" s="19">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="19"/>
       <c r="B166" s="8">
         <v>165</v>
@@ -5565,13 +5591,13 @@
         <v>1</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H166" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="19"/>
       <c r="B167" s="9">
         <v>166</v>
@@ -5589,13 +5615,13 @@
         <v>1</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H167" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="19"/>
       <c r="B168" s="11">
         <v>167</v>
@@ -5613,13 +5639,13 @@
         <v>1</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H168" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="19"/>
       <c r="B169" s="7">
         <v>168</v>
@@ -5637,13 +5663,13 @@
         <v>1</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H169" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="19"/>
       <c r="B170" s="11">
         <v>169</v>
@@ -5661,13 +5687,13 @@
         <v>1</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H170" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="19"/>
       <c r="B171" s="16">
         <v>170</v>
@@ -5685,13 +5711,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H171" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="19"/>
       <c r="B172" s="15">
         <v>171</v>
@@ -5713,8 +5739,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="18">
-      <c r="A173" s="24"/>
+    <row r="173" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A173" s="23"/>
       <c r="B173" s="9">
         <v>172</v>
       </c>
@@ -5731,13 +5757,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H173" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="19"/>
       <c r="B174" s="17">
         <v>173</v>
@@ -5759,7 +5785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="19"/>
       <c r="B175" s="8">
         <v>174</v>
@@ -5777,13 +5803,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H175" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="19"/>
       <c r="B176" s="15">
         <v>175</v>
@@ -5805,7 +5831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="19"/>
       <c r="B177" s="16">
         <v>176</v>
@@ -5823,13 +5849,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H177" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="19"/>
       <c r="B178" s="11">
         <v>177</v>
@@ -5847,13 +5873,13 @@
         <v>2</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H178" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="19"/>
       <c r="B179" s="14">
         <v>178</v>
@@ -5871,13 +5897,13 @@
         <v>2</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H179" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="19"/>
       <c r="B180" s="11">
         <v>179</v>
@@ -5895,13 +5921,13 @@
         <v>2</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H180" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="19"/>
       <c r="B181" s="14">
         <v>180</v>
@@ -5919,13 +5945,13 @@
         <v>2</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H181" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="19"/>
       <c r="B182" s="11">
         <v>181</v>
@@ -5943,13 +5969,13 @@
         <v>2</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H182" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="19"/>
       <c r="B183" s="14">
         <v>182</v>
@@ -5967,13 +5993,13 @@
         <v>2</v>
       </c>
       <c r="G183" s="14" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H183" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="19"/>
       <c r="B184" s="12">
         <v>183</v>
@@ -5991,13 +6017,13 @@
         <v>2</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H184" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="19"/>
       <c r="B185" s="11">
         <v>184</v>
@@ -6015,37 +6041,37 @@
         <v>2</v>
       </c>
       <c r="G185" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H185" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A186" s="19"/>
+      <c r="B186" s="29">
+        <v>185</v>
+      </c>
+      <c r="C186" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="H185" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="18">
-      <c r="A186" s="19"/>
-      <c r="B186" s="22">
-        <v>185</v>
-      </c>
-      <c r="C186" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D186" s="22">
+      <c r="D186" s="29">
         <v>753</v>
       </c>
-      <c r="E186" s="22">
+      <c r="E186" s="29">
         <v>65</v>
       </c>
-      <c r="F186" s="22">
-        <v>2</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>330</v>
+      <c r="F186" s="29">
+        <v>2</v>
+      </c>
+      <c r="G186" s="28" t="s">
+        <v>317</v>
       </c>
       <c r="H186" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="19"/>
       <c r="B187" s="14">
         <v>186</v>
@@ -6063,13 +6089,13 @@
         <v>2</v>
       </c>
       <c r="G187" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H187" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="19"/>
       <c r="B188" s="11">
         <v>187</v>
@@ -6087,13 +6113,13 @@
         <v>2</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H188" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="19"/>
       <c r="B189" s="12">
         <v>188</v>
@@ -6111,13 +6137,13 @@
         <v>2</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H189" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="19"/>
       <c r="B190" s="8">
         <v>189</v>
@@ -6135,13 +6161,13 @@
         <v>2</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H190" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="19"/>
       <c r="B191" s="11">
         <v>190</v>
@@ -6159,13 +6185,13 @@
         <v>2</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H191" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="19"/>
       <c r="B192" s="14">
         <v>191</v>
@@ -6183,19 +6209,19 @@
         <v>2</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H192" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="19"/>
       <c r="B193" s="14">
         <v>192</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D193" s="14">
         <v>598</v>
@@ -6207,13 +6233,13 @@
         <v>2</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H193" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
       <c r="B194" s="12">
         <v>193</v>
@@ -6231,13 +6257,13 @@
         <v>2</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H194" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="19"/>
       <c r="B195" s="15">
         <v>194</v>
@@ -6259,7 +6285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="18">
+    <row r="196" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="19"/>
       <c r="B196" s="14">
         <v>195</v>
@@ -6277,13 +6303,13 @@
         <v>2</v>
       </c>
       <c r="G196" s="18" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H196" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="19"/>
       <c r="B197" s="14">
         <v>196</v>
@@ -6301,13 +6327,13 @@
         <v>2</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H197" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="19"/>
       <c r="B198" s="16">
         <v>197</v>
@@ -6325,13 +6351,13 @@
         <v>2</v>
       </c>
       <c r="G198" s="16" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H198" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="19"/>
       <c r="B199" s="14">
         <v>198</v>
@@ -6349,13 +6375,13 @@
         <v>2</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H199" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="19"/>
       <c r="B200" s="11">
         <v>199</v>
@@ -6373,13 +6399,13 @@
         <v>2</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H200" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="19"/>
       <c r="B201" s="11">
         <v>200</v>
@@ -6397,13 +6423,13 @@
         <v>2</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H201" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="19"/>
       <c r="B202" s="11">
         <v>201</v>
@@ -6421,13 +6447,13 @@
         <v>2</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H202" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="19"/>
       <c r="B203" s="14">
         <v>202</v>
@@ -6445,13 +6471,13 @@
         <v>2</v>
       </c>
       <c r="G203" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H203" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="19"/>
       <c r="B204" s="11">
         <v>203</v>
@@ -6469,13 +6495,13 @@
         <v>2</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H204" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="19"/>
       <c r="B205" s="8">
         <v>204</v>
@@ -6493,13 +6519,13 @@
         <v>2</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H205" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="19"/>
       <c r="B206" s="11">
         <v>205</v>
@@ -6513,13 +6539,13 @@
         <v>2</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H206" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="19"/>
       <c r="B207" s="14">
         <v>206</v>
@@ -6537,13 +6563,13 @@
         <v>2</v>
       </c>
       <c r="G207" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H207" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="19"/>
       <c r="B208" s="9">
         <v>207</v>
@@ -6561,13 +6587,13 @@
         <v>2</v>
       </c>
       <c r="G208" s="9" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H208" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="19"/>
       <c r="B209" s="14">
         <v>208</v>
@@ -6585,13 +6611,13 @@
         <v>2</v>
       </c>
       <c r="G209" s="14" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H209" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="19"/>
       <c r="B210" s="14">
         <v>209</v>
@@ -6609,13 +6635,13 @@
         <v>2</v>
       </c>
       <c r="G210" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H210" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="19"/>
       <c r="B211" s="14">
         <v>210</v>
@@ -6633,13 +6659,13 @@
         <v>2</v>
       </c>
       <c r="G211" s="14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H211" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="19"/>
       <c r="B212" s="11">
         <v>211</v>
@@ -6657,13 +6683,13 @@
         <v>2</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H212" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="19"/>
       <c r="B213" s="11">
         <v>212</v>
@@ -6681,13 +6707,13 @@
         <v>2</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H213" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="19"/>
       <c r="B214" s="14">
         <v>213</v>
@@ -6705,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="19"/>
       <c r="B215" s="11">
         <v>214</v>
@@ -6723,13 +6749,13 @@
         <v>2</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H215" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="19"/>
       <c r="B216" s="11">
         <v>215</v>
@@ -6747,13 +6773,13 @@
         <v>2</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="H216" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="19"/>
       <c r="B217" s="16">
         <v>216</v>
@@ -6771,13 +6797,13 @@
         <v>2</v>
       </c>
       <c r="G217" s="16" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H217" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="19"/>
       <c r="B218" s="14">
         <v>217</v>
@@ -6799,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="19"/>
       <c r="B219" s="14">
         <v>218</v>
@@ -6821,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="19"/>
       <c r="B220" s="11">
         <v>219</v>
@@ -6839,13 +6865,13 @@
         <v>2</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H220" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="19"/>
       <c r="B221" s="11">
         <v>220</v>
@@ -6863,13 +6889,13 @@
         <v>2</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H221" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="19"/>
       <c r="B222" s="11">
         <v>221</v>
@@ -6887,13 +6913,13 @@
         <v>2</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H222" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="19"/>
       <c r="B223" s="15">
         <v>222</v>
@@ -6915,7 +6941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="19"/>
       <c r="B224" s="11">
         <v>223</v>
@@ -6929,13 +6955,13 @@
         <v>2</v>
       </c>
       <c r="G224" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H224" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="19"/>
       <c r="B225" s="11">
         <v>224</v>
@@ -6953,13 +6979,13 @@
         <v>2</v>
       </c>
       <c r="G225" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H225" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="19"/>
       <c r="B226" s="11">
         <v>225</v>
@@ -6977,13 +7003,13 @@
         <v>2</v>
       </c>
       <c r="G226" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H226" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="19"/>
       <c r="B227" s="14">
         <v>226</v>
@@ -7001,13 +7027,13 @@
         <v>2</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H227" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="19"/>
       <c r="B228" s="14">
         <v>227</v>
@@ -7025,13 +7051,13 @@
         <v>2</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H228" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="19"/>
       <c r="B229" s="14">
         <v>228</v>
@@ -7049,13 +7075,13 @@
         <v>2</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H229" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="19"/>
       <c r="B230" s="11">
         <v>229</v>
@@ -7073,13 +7099,13 @@
         <v>2</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="H230" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="19"/>
       <c r="B231" s="13">
         <v>230</v>
@@ -7101,7 +7127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="19"/>
       <c r="B232" s="13">
         <v>231</v>
@@ -7123,7 +7149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="19"/>
       <c r="B233" s="13">
         <v>232</v>
@@ -7145,7 +7171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="19"/>
       <c r="B234" s="13">
         <v>233</v>
@@ -7167,7 +7193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="19"/>
       <c r="B235" s="13">
         <v>234</v>
@@ -7189,7 +7215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="19"/>
       <c r="B236" s="13">
         <v>235</v>
@@ -7211,7 +7237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="19"/>
       <c r="B237" s="13">
         <v>236</v>
@@ -7233,7 +7259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="19"/>
       <c r="B238" s="17">
         <v>237</v>
@@ -7255,7 +7281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="19"/>
       <c r="B239" s="13">
         <v>238</v>
@@ -7277,7 +7303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="19"/>
       <c r="B240" s="13">
         <v>239</v>
@@ -7299,7 +7325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="19"/>
       <c r="B241" s="13">
         <v>240</v>
@@ -7321,7 +7347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="19"/>
       <c r="B242" s="13">
         <v>241</v>
@@ -7344,7 +7370,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I242">
+  <sortState ref="B2:I242">
     <sortCondition ref="B2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7356,23 +7382,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C87F98-1DFC-4881-831A-B44C874EDCA8}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>255</v>
       </c>
@@ -7380,7 +7404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>256</v>
       </c>
@@ -7388,7 +7412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>257</v>
       </c>
@@ -7396,7 +7420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>258</v>
       </c>
@@ -7404,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>259</v>
       </c>
@@ -7412,7 +7436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>260</v>
       </c>
@@ -7420,7 +7444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>261</v>
       </c>
@@ -7428,7 +7452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>262</v>
       </c>
@@ -7436,7 +7460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>263</v>
       </c>
@@ -7444,7 +7468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>264</v>
       </c>
@@ -7452,7 +7476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>265</v>
       </c>
@@ -7460,7 +7484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>266</v>
       </c>
@@ -7468,7 +7492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>267</v>
       </c>
@@ -7476,7 +7500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>267</v>
       </c>
@@ -7484,7 +7508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>268</v>
       </c>
@@ -7492,7 +7516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>269</v>
       </c>
@@ -7500,7 +7524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>270</v>
       </c>
@@ -7508,7 +7532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>271</v>
       </c>
@@ -7516,7 +7540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>272</v>
       </c>
@@ -7524,7 +7548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>273</v>
       </c>
@@ -7532,7 +7556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>274</v>
       </c>
@@ -7540,7 +7564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>275</v>
       </c>
@@ -7548,7 +7572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>276</v>
       </c>
@@ -7556,7 +7580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>277</v>
       </c>
@@ -7564,7 +7588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>278</v>
       </c>
@@ -7572,7 +7596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>279</v>
       </c>
@@ -7580,7 +7604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>280</v>
       </c>
@@ -7588,7 +7612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>281</v>
       </c>
@@ -7596,7 +7620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>282</v>
       </c>
@@ -7604,7 +7628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>283</v>
       </c>
@@ -7612,7 +7636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>284</v>
       </c>
@@ -7620,7 +7644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>285</v>
       </c>
@@ -7628,12 +7652,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>286</v>
       </c>
       <c r="B34">
         <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>242</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>243</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>244</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>245</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>246</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>247</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>248</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>249</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>251</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>252</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>253</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>254</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7645,20 +7773,32 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFB557D-C3D9-4247-B3E8-D2CB612D3951}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>235</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -7668,126 +7808,125 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B668390D-356A-4CA1-A30D-1579C180D840}">
-  <sheetPr codeName="Sheet12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CC2698-9C56-417E-A18B-7D08410AA0CC}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>243</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>246</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>254</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7799,23 +7938,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC12914A-E283-4D30-B8B3-3743CEF73AB8}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>234</v>
@@ -7827,15 +7966,15 @@
         <v>241</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2">
         <v>820</v>
@@ -7847,15 +7986,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3">
         <v>494</v>
@@ -7867,15 +8006,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>518</v>
@@ -7887,15 +8026,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5">
         <v>513</v>
@@ -7907,15 +8046,15 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6">
         <v>650</v>
@@ -7927,15 +8066,15 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C7">
         <v>556</v>
@@ -7947,15 +8086,15 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8">
         <v>542</v>
@@ -7967,15 +8106,15 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9">
         <v>703</v>
@@ -7987,15 +8126,15 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10">
         <v>553</v>
@@ -8007,15 +8146,15 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11">
         <v>210</v>
@@ -8027,184 +8166,178 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C12">
-        <v>822</v>
+        <v>554</v>
       </c>
       <c r="D12">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>309</v>
-      </c>
-      <c r="H12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="D13">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>267</v>
       </c>
       <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14">
+        <v>479</v>
+      </c>
+      <c r="D14">
+        <v>170</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>268</v>
+      </c>
+      <c r="B15" t="s">
         <v>279</v>
       </c>
-      <c r="C14">
-        <v>554</v>
-      </c>
-      <c r="D14">
-        <v>199</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>294</v>
+      </c>
+      <c r="D15">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
         <v>280</v>
       </c>
-      <c r="C15">
-        <v>501</v>
-      </c>
-      <c r="D15">
-        <v>355</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>268</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>274</v>
+      </c>
+      <c r="D16">
+        <v>171</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
         <v>281</v>
       </c>
-      <c r="C16">
-        <v>479</v>
-      </c>
-      <c r="D16">
-        <v>170</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>269</v>
-      </c>
-      <c r="B17" t="s">
-        <v>282</v>
-      </c>
       <c r="C17">
-        <v>294</v>
+        <v>589</v>
       </c>
       <c r="D17">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="D18">
-        <v>171</v>
+        <v>371</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19">
-        <v>589</v>
+        <v>406</v>
       </c>
       <c r="D19">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C20">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="D20">
         <v>371</v>
@@ -8213,287 +8346,507 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C21">
-        <v>406</v>
+        <v>709</v>
       </c>
       <c r="D21">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22">
-        <v>360</v>
+        <v>709</v>
       </c>
       <c r="D22">
-        <v>371</v>
+        <v>203</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C23">
-        <v>709</v>
+        <v>437</v>
       </c>
       <c r="D23">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E23">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24">
-        <v>709</v>
+        <v>404</v>
       </c>
       <c r="D24">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="D25">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C26">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="D26">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27">
-        <v>364</v>
+        <v>664</v>
       </c>
       <c r="D27">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28">
-        <v>331</v>
+        <v>701</v>
       </c>
       <c r="D28">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C29">
-        <v>664</v>
+        <v>623</v>
       </c>
       <c r="D29">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30">
-        <v>701</v>
+        <v>241</v>
       </c>
       <c r="D30">
-        <v>113</v>
+        <v>371</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C31">
-        <v>623</v>
+        <v>510</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C32">
-        <v>241</v>
+        <v>430</v>
       </c>
       <c r="D32">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>242</v>
+      </c>
+      <c r="B33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33">
+        <v>792</v>
+      </c>
+      <c r="D33">
+        <v>144</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>243</v>
+      </c>
+      <c r="B34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34">
+        <v>579</v>
+      </c>
+      <c r="D34">
+        <v>222</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>244</v>
+      </c>
+      <c r="B35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35">
+        <v>224</v>
+      </c>
+      <c r="D35">
+        <v>332</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>245</v>
+      </c>
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36">
+        <v>859</v>
+      </c>
+      <c r="D36">
+        <v>163</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>246</v>
+      </c>
+      <c r="B37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37">
+        <v>612</v>
+      </c>
+      <c r="D37">
+        <v>286</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>247</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38">
+        <v>339</v>
+      </c>
+      <c r="D38">
+        <v>299</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>248</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>211</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40">
+        <v>788</v>
+      </c>
+      <c r="D40">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41">
+        <v>476</v>
+      </c>
+      <c r="D41">
+        <v>199</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>251</v>
+      </c>
+      <c r="B42" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42">
+        <v>510</v>
+      </c>
+      <c r="D42">
+        <v>222</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43">
+        <v>161</v>
+      </c>
+      <c r="D43">
+        <v>252</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>253</v>
+      </c>
+      <c r="B44" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>285</v>
-      </c>
-      <c r="B33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33">
-        <v>510</v>
-      </c>
-      <c r="D33">
-        <v>164</v>
-      </c>
-      <c r="E33">
+      <c r="C44">
+        <v>590</v>
+      </c>
+      <c r="D44">
+        <v>261</v>
+      </c>
+      <c r="E44">
         <v>3</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>254</v>
+      </c>
+      <c r="B45" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>286</v>
-      </c>
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34">
-        <v>430</v>
-      </c>
-      <c r="D34">
-        <v>370</v>
-      </c>
-      <c r="E34">
+      <c r="C45">
+        <v>514</v>
+      </c>
+      <c r="D45">
+        <v>256</v>
+      </c>
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
-        <v>308</v>
+      <c r="F45" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -8503,297 +8856,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E747F6-6250-4D9A-969D-16A040183770}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A199D8-3E3B-44B6-94FB-3170FB3149F6}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2">
-        <v>792</v>
-      </c>
-      <c r="D2">
-        <v>144</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="C1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3">
-        <v>579</v>
-      </c>
-      <c r="D3">
-        <v>222</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="D1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4">
-        <v>224</v>
-      </c>
-      <c r="D4">
-        <v>332</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="E1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5">
-        <v>859</v>
-      </c>
-      <c r="D5">
-        <v>163</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="F1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6">
-        <v>612</v>
-      </c>
-      <c r="D6">
-        <v>286</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>247</v>
-      </c>
-      <c r="B7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7">
-        <v>339</v>
-      </c>
-      <c r="D7">
-        <v>299</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>248</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8">
-        <v>91</v>
-      </c>
-      <c r="D8">
-        <v>211</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>249</v>
-      </c>
-      <c r="B9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9">
-        <v>788</v>
-      </c>
-      <c r="D9">
-        <v>59</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>250</v>
-      </c>
-      <c r="B10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10">
-        <v>476</v>
-      </c>
-      <c r="D10">
-        <v>199</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>251</v>
-      </c>
-      <c r="B11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C11">
-        <v>510</v>
-      </c>
-      <c r="D11">
-        <v>222</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>252</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12">
-        <v>161</v>
-      </c>
-      <c r="D12">
-        <v>252</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>253</v>
-      </c>
-      <c r="B13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C13">
-        <v>590</v>
-      </c>
-      <c r="D13">
-        <v>261</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>254</v>
-      </c>
-      <c r="B14" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14">
-        <v>514</v>
-      </c>
-      <c r="D14">
-        <v>256</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>313</v>
+      <c r="G1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -8803,58 +8899,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A199D8-3E3B-44B6-94FB-3170FB3149F6}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
-  <cols>
-    <col min="3" max="4" width="11.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BE1C1A-2034-4A46-AE3B-A01624A5A159}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
@@ -8862,7 +8921,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8870,7 +8929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8878,7 +8937,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8886,7 +8945,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8894,7 +8953,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8902,23 +8961,23 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8926,7 +8985,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8934,15 +8993,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8950,20 +9009,20 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -8973,38 +9032,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A3FBD3-98CA-42A0-A91C-F5D87C55817B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A792B55D-319B-4E65-A122-54605593F8E4}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="3" customFormat="1">
+    <row r="1" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -9018,20 +9103,20 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="117" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="117" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>242</v>
       </c>
@@ -9039,17 +9124,15 @@
         <v>235</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>247</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>266</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G1" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9067,12 +9150,12 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>242</v>
       </c>
@@ -9098,9 +9181,9 @@
       <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>236</v>
       </c>
@@ -9108,7 +9191,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9116,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9124,7 +9207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9132,7 +9215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9140,7 +9223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9148,7 +9231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9156,7 +9239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9164,7 +9247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9172,7 +9255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9180,7 +9263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9188,7 +9271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9196,7 +9279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9204,7 +9287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9212,7 +9295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9220,7 +9303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9228,7 +9311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9236,7 +9319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9244,7 +9327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9252,7 +9335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9260,7 +9343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9268,7 +9351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9276,7 +9359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9284,7 +9367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9292,7 +9375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9300,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9308,7 +9391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9316,7 +9399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9324,7 +9407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9332,7 +9415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9340,7 +9423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9348,7 +9431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9356,7 +9439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9364,7 +9447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9372,7 +9455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9380,7 +9463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9388,7 +9471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9396,7 +9479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9404,7 +9487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9412,7 +9495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9420,7 +9503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9428,7 +9511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9436,7 +9519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9444,7 +9527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9452,7 +9535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9460,7 +9543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9468,7 +9551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9476,7 +9559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9484,7 +9567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9492,7 +9575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9500,7 +9583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9508,7 +9591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9516,7 +9599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9524,7 +9607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9532,7 +9615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9540,7 +9623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9548,7 +9631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9556,7 +9639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9564,7 +9647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9572,7 +9655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9580,7 +9663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9588,7 +9671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9596,7 +9679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9604,7 +9687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9612,7 +9695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9620,7 +9703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9628,7 +9711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9636,7 +9719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9644,7 +9727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -9652,7 +9735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9660,7 +9743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9668,7 +9751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9676,7 +9759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9684,7 +9767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9692,7 +9775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -9700,7 +9783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9708,7 +9791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9716,7 +9799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9724,7 +9807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9732,7 +9815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9740,7 +9823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9748,7 +9831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9756,7 +9839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9764,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>81</v>
       </c>
@@ -9772,7 +9855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>82</v>
       </c>
@@ -9780,7 +9863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>83</v>
       </c>
@@ -9788,7 +9871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>84</v>
       </c>
@@ -9796,7 +9879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
@@ -9804,7 +9887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>86</v>
       </c>
@@ -9812,7 +9895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>87</v>
       </c>
@@ -9820,7 +9903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>88</v>
       </c>
@@ -9828,7 +9911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>89</v>
       </c>
@@ -9836,7 +9919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -9844,7 +9927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>91</v>
       </c>
@@ -9852,7 +9935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -9860,7 +9943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>93</v>
       </c>
@@ -9868,7 +9951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>94</v>
       </c>
@@ -9876,7 +9959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95</v>
       </c>
@@ -9884,7 +9967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96</v>
       </c>
@@ -9892,7 +9975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97</v>
       </c>
@@ -9900,7 +9983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
@@ -9908,7 +9991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
@@ -9916,7 +9999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
@@ -9924,7 +10007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>101</v>
       </c>
@@ -9932,7 +10015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
@@ -9940,7 +10023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
@@ -9948,7 +10031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>104</v>
       </c>
@@ -9956,7 +10039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
@@ -9964,7 +10047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106</v>
       </c>
@@ -9972,7 +10055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107</v>
       </c>
@@ -9980,7 +10063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>108</v>
       </c>
@@ -9988,7 +10071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
@@ -9996,7 +10079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>110</v>
       </c>
@@ -10004,7 +10087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>111</v>
       </c>
@@ -10012,7 +10095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>112</v>
       </c>
@@ -10020,7 +10103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
@@ -10028,7 +10111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
@@ -10036,7 +10119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
@@ -10044,7 +10127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
@@ -10052,7 +10135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
@@ -10060,7 +10143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
@@ -10068,7 +10151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
@@ -10076,7 +10159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
@@ -10084,7 +10167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>121</v>
       </c>
@@ -10092,7 +10175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>122</v>
       </c>
@@ -10100,7 +10183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>123</v>
       </c>
@@ -10108,7 +10191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>124</v>
       </c>
@@ -10116,7 +10199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>125</v>
       </c>
@@ -10124,7 +10207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>126</v>
       </c>
@@ -10132,7 +10215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>127</v>
       </c>
@@ -10140,7 +10223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>128</v>
       </c>
@@ -10148,7 +10231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>129</v>
       </c>
@@ -10156,7 +10239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
@@ -10164,7 +10247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>131</v>
       </c>
@@ -10172,7 +10255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>132</v>
       </c>
@@ -10180,7 +10263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>133</v>
       </c>
@@ -10188,7 +10271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>134</v>
       </c>
@@ -10196,7 +10279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>135</v>
       </c>
@@ -10204,7 +10287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>136</v>
       </c>
@@ -10212,7 +10295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>137</v>
       </c>
@@ -10220,7 +10303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>138</v>
       </c>
@@ -10228,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>139</v>
       </c>
@@ -10236,7 +10319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>140</v>
       </c>
@@ -10244,7 +10327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>141</v>
       </c>
@@ -10252,7 +10335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>142</v>
       </c>
@@ -10260,7 +10343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>143</v>
       </c>
@@ -10268,7 +10351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>144</v>
       </c>
@@ -10276,7 +10359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>145</v>
       </c>
@@ -10284,7 +10367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>146</v>
       </c>
@@ -10292,7 +10375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>147</v>
       </c>
@@ -10300,7 +10383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>148</v>
       </c>
@@ -10308,7 +10391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>149</v>
       </c>
@@ -10316,7 +10399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>150</v>
       </c>
@@ -10324,7 +10407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>151</v>
       </c>
@@ -10332,7 +10415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>152</v>
       </c>
@@ -10340,7 +10423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>153</v>
       </c>
@@ -10348,7 +10431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>154</v>
       </c>
@@ -10356,7 +10439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>155</v>
       </c>
@@ -10364,7 +10447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>156</v>
       </c>
@@ -10372,7 +10455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>157</v>
       </c>
@@ -10380,7 +10463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>158</v>
       </c>
@@ -10388,7 +10471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>159</v>
       </c>
@@ -10396,7 +10479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>160</v>
       </c>
@@ -10404,7 +10487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>161</v>
       </c>
@@ -10412,7 +10495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>162</v>
       </c>
@@ -10420,7 +10503,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>163</v>
       </c>
@@ -10428,7 +10511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>164</v>
       </c>
@@ -10436,7 +10519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>165</v>
       </c>
@@ -10444,7 +10527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>166</v>
       </c>
@@ -10452,7 +10535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>167</v>
       </c>
@@ -10460,7 +10543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>168</v>
       </c>
@@ -10468,7 +10551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>169</v>
       </c>
@@ -10476,7 +10559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>170</v>
       </c>
@@ -10484,7 +10567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>171</v>
       </c>
@@ -10492,7 +10575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>172</v>
       </c>
@@ -10500,7 +10583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>173</v>
       </c>
@@ -10508,7 +10591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>174</v>
       </c>
@@ -10516,7 +10599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>175</v>
       </c>
@@ -10524,7 +10607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>176</v>
       </c>
@@ -10532,7 +10615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>177</v>
       </c>
@@ -10540,7 +10623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>178</v>
       </c>
@@ -10548,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>179</v>
       </c>
@@ -10556,7 +10639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>180</v>
       </c>
@@ -10564,7 +10647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>181</v>
       </c>
@@ -10572,7 +10655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>182</v>
       </c>
@@ -10580,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>183</v>
       </c>
@@ -10588,7 +10671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>183</v>
       </c>
@@ -10596,7 +10679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>184</v>
       </c>
@@ -10604,7 +10687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>185</v>
       </c>
@@ -10612,7 +10695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>186</v>
       </c>
@@ -10620,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>187</v>
       </c>
@@ -10628,7 +10711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>188</v>
       </c>
@@ -10636,7 +10719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>188</v>
       </c>
@@ -10644,7 +10727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>189</v>
       </c>
@@ -10652,7 +10735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>190</v>
       </c>
@@ -10660,7 +10743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>191</v>
       </c>
@@ -10668,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>192</v>
       </c>
@@ -10676,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>193</v>
       </c>
@@ -10684,7 +10767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>193</v>
       </c>
@@ -10692,7 +10775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>194</v>
       </c>
@@ -10700,7 +10783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>195</v>
       </c>
@@ -10708,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>196</v>
       </c>
@@ -10716,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>197</v>
       </c>
@@ -10724,7 +10807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>198</v>
       </c>
@@ -10732,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>199</v>
       </c>
@@ -10740,7 +10823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>200</v>
       </c>
@@ -10748,7 +10831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>201</v>
       </c>
@@ -10756,7 +10839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>202</v>
       </c>
@@ -10764,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>203</v>
       </c>
@@ -10772,7 +10855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>204</v>
       </c>
@@ -10780,7 +10863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>205</v>
       </c>
@@ -10788,7 +10871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>206</v>
       </c>
@@ -10796,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>207</v>
       </c>
@@ -10804,7 +10887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>208</v>
       </c>
@@ -10812,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>209</v>
       </c>
@@ -10820,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>210</v>
       </c>
@@ -10828,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>211</v>
       </c>
@@ -10836,7 +10919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>212</v>
       </c>
@@ -10844,7 +10927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>213</v>
       </c>
@@ -10852,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>214</v>
       </c>
@@ -10860,7 +10943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>215</v>
       </c>
@@ -10868,7 +10951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>216</v>
       </c>
@@ -10876,7 +10959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>217</v>
       </c>
@@ -10884,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>218</v>
       </c>
@@ -10892,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>219</v>
       </c>
@@ -10900,7 +10983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>220</v>
       </c>
@@ -10908,7 +10991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>221</v>
       </c>
@@ -10916,7 +10999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>222</v>
       </c>
@@ -10924,7 +11007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>223</v>
       </c>
@@ -10932,7 +11015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>224</v>
       </c>
@@ -10940,7 +11023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>225</v>
       </c>
@@ -10948,7 +11031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>226</v>
       </c>
@@ -10956,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>227</v>
       </c>
@@ -10964,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>228</v>
       </c>
@@ -10972,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>229</v>
       </c>
@@ -10980,7 +11063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>230</v>
       </c>
@@ -10988,7 +11071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>231</v>
       </c>
@@ -10996,7 +11079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>232</v>
       </c>
@@ -11004,7 +11087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>233</v>
       </c>
@@ -11012,7 +11095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>234</v>
       </c>
@@ -11020,7 +11103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>235</v>
       </c>
@@ -11028,7 +11111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>236</v>
       </c>
@@ -11036,7 +11119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>237</v>
       </c>
@@ -11044,7 +11127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>238</v>
       </c>
@@ -11052,7 +11135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>239</v>
       </c>
@@ -11060,7 +11143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>240</v>
       </c>
@@ -11068,7 +11151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>241</v>
       </c>
